--- a/WaveformCNN/laff_vcv/sampled_stop_klatt_params.xlsx
+++ b/WaveformCNN/laff_vcv/sampled_stop_klatt_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughe\Documents\CNN_Perceptual_Integration_Channel_Bias\Experiment\WaveformCNN\laff_vcv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4472CF-F493-47D9-BEB9-937857AE467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{032BE8C8-8DFA-43D7-ADC8-B850888E82A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
